--- a/TestFiles/sample2/model.xlsx
+++ b/TestFiles/sample2/model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="31">
   <si>
     <t>First_Key</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C634"/>
+  <dimension ref="A1:C747"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7417,6 +7417,1249 @@
       </c>
       <c r="C634">
         <v>0.3163127999999915</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" t="s">
+        <v>3</v>
+      </c>
+      <c r="B635" t="s">
+        <v>4</v>
+      </c>
+      <c r="C635">
+        <v>0.2136803</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" t="s">
+        <v>4</v>
+      </c>
+      <c r="B636" t="s">
+        <v>5</v>
+      </c>
+      <c r="C636">
+        <v>0.2106459999999997</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" t="s">
+        <v>5</v>
+      </c>
+      <c r="B637" t="s">
+        <v>6</v>
+      </c>
+      <c r="C637">
+        <v>0.1998742</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" t="s">
+        <v>6</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638">
+        <v>0.3876955999999998</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639" t="s">
+        <v>7</v>
+      </c>
+      <c r="B639" t="s">
+        <v>8</v>
+      </c>
+      <c r="C639">
+        <v>1.0935773</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" t="s">
+        <v>8</v>
+      </c>
+      <c r="B640" t="s">
+        <v>4</v>
+      </c>
+      <c r="C640">
+        <v>0.1940649000000008</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" t="s">
+        <v>4</v>
+      </c>
+      <c r="B641" t="s">
+        <v>9</v>
+      </c>
+      <c r="C641">
+        <v>0.2523222999999994</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" t="s">
+        <v>9</v>
+      </c>
+      <c r="B642" t="s">
+        <v>10</v>
+      </c>
+      <c r="C642">
+        <v>0.2319779999999998</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" t="s">
+        <v>10</v>
+      </c>
+      <c r="B643" t="s">
+        <v>7</v>
+      </c>
+      <c r="C643">
+        <v>0.2040761</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" t="s">
+        <v>7</v>
+      </c>
+      <c r="B644" t="s">
+        <v>8</v>
+      </c>
+      <c r="C644">
+        <v>1.0517699</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645" t="s">
+        <v>8</v>
+      </c>
+      <c r="B645" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645">
+        <v>0.228621200000001</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" t="s">
+        <v>11</v>
+      </c>
+      <c r="B646" t="s">
+        <v>12</v>
+      </c>
+      <c r="C646">
+        <v>0.2236531999999993</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" t="s">
+        <v>12</v>
+      </c>
+      <c r="B647" t="s">
+        <v>10</v>
+      </c>
+      <c r="C647">
+        <v>0.231681</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" t="s">
+        <v>10</v>
+      </c>
+      <c r="B648" t="s">
+        <v>7</v>
+      </c>
+      <c r="C648">
+        <v>0.2318301999999992</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" t="s">
+        <v>7</v>
+      </c>
+      <c r="B649" t="s">
+        <v>8</v>
+      </c>
+      <c r="C649">
+        <v>1.023938900000001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" t="s">
+        <v>8</v>
+      </c>
+      <c r="B650" t="s">
+        <v>11</v>
+      </c>
+      <c r="C650">
+        <v>0.2443851000000006</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" t="s">
+        <v>11</v>
+      </c>
+      <c r="B651" t="s">
+        <v>6</v>
+      </c>
+      <c r="C651">
+        <v>0.2038446999999994</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" t="s">
+        <v>6</v>
+      </c>
+      <c r="B652" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652">
+        <v>0.2002868000000007</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" t="s">
+        <v>10</v>
+      </c>
+      <c r="B653" t="s">
+        <v>7</v>
+      </c>
+      <c r="C653">
+        <v>0.2599512999999991</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654" t="s">
+        <v>7</v>
+      </c>
+      <c r="B654" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654">
+        <v>1.292218399999999</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655" t="s">
+        <v>13</v>
+      </c>
+      <c r="B655" t="s">
+        <v>11</v>
+      </c>
+      <c r="C655">
+        <v>0.1995891000000007</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656" t="s">
+        <v>11</v>
+      </c>
+      <c r="B656" t="s">
+        <v>14</v>
+      </c>
+      <c r="C656">
+        <v>0.1920760000000001</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657" t="s">
+        <v>14</v>
+      </c>
+      <c r="B657" t="s">
+        <v>15</v>
+      </c>
+      <c r="C657">
+        <v>0.211629499999999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" t="s">
+        <v>15</v>
+      </c>
+      <c r="B658" t="s">
+        <v>16</v>
+      </c>
+      <c r="C658">
+        <v>0.2240869000000014</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659" t="s">
+        <v>16</v>
+      </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659">
+        <v>0.2400880000000001</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" t="s">
+        <v>7</v>
+      </c>
+      <c r="B660" t="s">
+        <v>3</v>
+      </c>
+      <c r="C660">
+        <v>1.139965699999998</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661" t="s">
+        <v>3</v>
+      </c>
+      <c r="B661" t="s">
+        <v>4</v>
+      </c>
+      <c r="C661">
+        <v>0.2242771000000019</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" t="s">
+        <v>4</v>
+      </c>
+      <c r="B662" t="s">
+        <v>5</v>
+      </c>
+      <c r="C662">
+        <v>0.3677606999999981</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663" t="s">
+        <v>5</v>
+      </c>
+      <c r="B663" t="s">
+        <v>8</v>
+      </c>
+      <c r="C663">
+        <v>0.1803408000000033</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" t="s">
+        <v>8</v>
+      </c>
+      <c r="B664" t="s">
+        <v>19</v>
+      </c>
+      <c r="C664">
+        <v>0.2796689999999984</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" t="s">
+        <v>19</v>
+      </c>
+      <c r="B665" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665">
+        <v>0.3561309000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" t="s">
+        <v>7</v>
+      </c>
+      <c r="B666" t="s">
+        <v>16</v>
+      </c>
+      <c r="C666">
+        <v>1.115630100000001</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" t="s">
+        <v>16</v>
+      </c>
+      <c r="B667" t="s">
+        <v>17</v>
+      </c>
+      <c r="C667">
+        <v>0.2602481999999995</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" t="s">
+        <v>17</v>
+      </c>
+      <c r="B668" t="s">
+        <v>18</v>
+      </c>
+      <c r="C668">
+        <v>0.4241182999999999</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" t="s">
+        <v>18</v>
+      </c>
+      <c r="B669" t="s">
+        <v>8</v>
+      </c>
+      <c r="C669">
+        <v>0.1641785999999996</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670" t="s">
+        <v>8</v>
+      </c>
+      <c r="B670" t="s">
+        <v>10</v>
+      </c>
+      <c r="C670">
+        <v>0.1996417999999984</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671" t="s">
+        <v>10</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671">
+        <v>0.4696069000000023</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672" t="s">
+        <v>7</v>
+      </c>
+      <c r="B672" t="s">
+        <v>3</v>
+      </c>
+      <c r="C672">
+        <v>1.146382599999999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673" t="s">
+        <v>3</v>
+      </c>
+      <c r="B673" t="s">
+        <v>4</v>
+      </c>
+      <c r="C673">
+        <v>0.2123072999999991</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674" t="s">
+        <v>4</v>
+      </c>
+      <c r="B674" t="s">
+        <v>5</v>
+      </c>
+      <c r="C674">
+        <v>0.1954857000000025</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675" t="s">
+        <v>5</v>
+      </c>
+      <c r="B675" t="s">
+        <v>6</v>
+      </c>
+      <c r="C675">
+        <v>0.2164892999999992</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676" t="s">
+        <v>6</v>
+      </c>
+      <c r="B676" t="s">
+        <v>7</v>
+      </c>
+      <c r="C676">
+        <v>0.3274852999999993</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677" t="s">
+        <v>7</v>
+      </c>
+      <c r="B677" t="s">
+        <v>8</v>
+      </c>
+      <c r="C677">
+        <v>1.004418999999999</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" t="s">
+        <v>8</v>
+      </c>
+      <c r="B678" t="s">
+        <v>4</v>
+      </c>
+      <c r="C678">
+        <v>0.207779900000002</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679" t="s">
+        <v>4</v>
+      </c>
+      <c r="B679" t="s">
+        <v>9</v>
+      </c>
+      <c r="C679">
+        <v>0.1762498999999984</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" t="s">
+        <v>9</v>
+      </c>
+      <c r="B680" t="s">
+        <v>10</v>
+      </c>
+      <c r="C680">
+        <v>0.2516445000000012</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" t="s">
+        <v>10</v>
+      </c>
+      <c r="B681" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681">
+        <v>0.1920490000000008</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682" t="s">
+        <v>7</v>
+      </c>
+      <c r="B682" t="s">
+        <v>8</v>
+      </c>
+      <c r="C682">
+        <v>1.168378099999998</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683" t="s">
+        <v>8</v>
+      </c>
+      <c r="B683" t="s">
+        <v>11</v>
+      </c>
+      <c r="C683">
+        <v>0.2114563999999994</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" t="s">
+        <v>11</v>
+      </c>
+      <c r="B684" t="s">
+        <v>12</v>
+      </c>
+      <c r="C684">
+        <v>0.4282792999999998</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685" t="s">
+        <v>12</v>
+      </c>
+      <c r="B685" t="s">
+        <v>10</v>
+      </c>
+      <c r="C685">
+        <v>0.1917454000000021</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686" t="s">
+        <v>10</v>
+      </c>
+      <c r="B686" t="s">
+        <v>7</v>
+      </c>
+      <c r="C686">
+        <v>0.2520696999999998</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687" t="s">
+        <v>7</v>
+      </c>
+      <c r="B687" t="s">
+        <v>8</v>
+      </c>
+      <c r="C687">
+        <v>1.2678999</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688" t="s">
+        <v>8</v>
+      </c>
+      <c r="B688" t="s">
+        <v>11</v>
+      </c>
+      <c r="C688">
+        <v>0.2323295999999999</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689" t="s">
+        <v>11</v>
+      </c>
+      <c r="B689" t="s">
+        <v>6</v>
+      </c>
+      <c r="C689">
+        <v>0.1957783000000006</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" t="s">
+        <v>6</v>
+      </c>
+      <c r="B690" t="s">
+        <v>10</v>
+      </c>
+      <c r="C690">
+        <v>0.2165520000000001</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691" t="s">
+        <v>10</v>
+      </c>
+      <c r="B691" t="s">
+        <v>7</v>
+      </c>
+      <c r="C691">
+        <v>0.2713783999999997</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692" t="s">
+        <v>7</v>
+      </c>
+      <c r="B692" t="s">
+        <v>13</v>
+      </c>
+      <c r="C692">
+        <v>1.411841299999999</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693" t="s">
+        <v>13</v>
+      </c>
+      <c r="B693" t="s">
+        <v>11</v>
+      </c>
+      <c r="C693">
+        <v>0.2255579999999995</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" t="s">
+        <v>11</v>
+      </c>
+      <c r="B694" t="s">
+        <v>14</v>
+      </c>
+      <c r="C694">
+        <v>0.2745891</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695" t="s">
+        <v>14</v>
+      </c>
+      <c r="B695" t="s">
+        <v>15</v>
+      </c>
+      <c r="C695">
+        <v>0.1919703000000013</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696" t="s">
+        <v>15</v>
+      </c>
+      <c r="B696" t="s">
+        <v>16</v>
+      </c>
+      <c r="C696">
+        <v>0.2279462000000017</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697" t="s">
+        <v>16</v>
+      </c>
+      <c r="B697" t="s">
+        <v>7</v>
+      </c>
+      <c r="C697">
+        <v>0.2962237999999999</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698" t="s">
+        <v>7</v>
+      </c>
+      <c r="B698" t="s">
+        <v>3</v>
+      </c>
+      <c r="C698">
+        <v>1.2760924</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699" t="s">
+        <v>3</v>
+      </c>
+      <c r="B699" t="s">
+        <v>4</v>
+      </c>
+      <c r="C699">
+        <v>0.2278414999999967</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" t="s">
+        <v>4</v>
+      </c>
+      <c r="B700" t="s">
+        <v>5</v>
+      </c>
+      <c r="C700">
+        <v>0.3717765000000028</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701" t="s">
+        <v>5</v>
+      </c>
+      <c r="B701" t="s">
+        <v>8</v>
+      </c>
+      <c r="C701">
+        <v>0.2045446999999996</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702" t="s">
+        <v>8</v>
+      </c>
+      <c r="B702" t="s">
+        <v>19</v>
+      </c>
+      <c r="C702">
+        <v>0.2531632999999971</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" t="s">
+        <v>19</v>
+      </c>
+      <c r="B703" t="s">
+        <v>7</v>
+      </c>
+      <c r="C703">
+        <v>0.2704942000000017</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704" t="s">
+        <v>7</v>
+      </c>
+      <c r="B704" t="s">
+        <v>16</v>
+      </c>
+      <c r="C704">
+        <v>1.084046800000003</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705" t="s">
+        <v>16</v>
+      </c>
+      <c r="B705" t="s">
+        <v>17</v>
+      </c>
+      <c r="C705">
+        <v>0.3321004999999957</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706" t="s">
+        <v>17</v>
+      </c>
+      <c r="B706" t="s">
+        <v>18</v>
+      </c>
+      <c r="C706">
+        <v>0.503551200000004</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707" t="s">
+        <v>18</v>
+      </c>
+      <c r="B707" t="s">
+        <v>8</v>
+      </c>
+      <c r="C707">
+        <v>0.2044987999999961</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" t="s">
+        <v>8</v>
+      </c>
+      <c r="B708" t="s">
+        <v>10</v>
+      </c>
+      <c r="C708">
+        <v>0.1638574999999989</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" t="s">
+        <v>10</v>
+      </c>
+      <c r="B709" t="s">
+        <v>7</v>
+      </c>
+      <c r="C709">
+        <v>0.2478787000000011</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" t="s">
+        <v>7</v>
+      </c>
+      <c r="B710" t="s">
+        <v>3</v>
+      </c>
+      <c r="C710">
+        <v>1.131864900000004</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711" t="s">
+        <v>3</v>
+      </c>
+      <c r="B711" t="s">
+        <v>4</v>
+      </c>
+      <c r="C711">
+        <v>0.2201838000000009</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712" t="s">
+        <v>4</v>
+      </c>
+      <c r="B712" t="s">
+        <v>5</v>
+      </c>
+      <c r="C712">
+        <v>0.2284000999999947</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713" t="s">
+        <v>5</v>
+      </c>
+      <c r="B713" t="s">
+        <v>6</v>
+      </c>
+      <c r="C713">
+        <v>0.2357660000000052</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714" t="s">
+        <v>6</v>
+      </c>
+      <c r="B714" t="s">
+        <v>7</v>
+      </c>
+      <c r="C714">
+        <v>0.4637907999999982</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715" t="s">
+        <v>7</v>
+      </c>
+      <c r="B715" t="s">
+        <v>8</v>
+      </c>
+      <c r="C715">
+        <v>1.048163799999998</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" t="s">
+        <v>8</v>
+      </c>
+      <c r="B716" t="s">
+        <v>4</v>
+      </c>
+      <c r="C716">
+        <v>0.2207523000000009</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B717" t="s">
+        <v>9</v>
+      </c>
+      <c r="C717">
+        <v>0.259120700000004</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718" t="s">
+        <v>9</v>
+      </c>
+      <c r="B718" t="s">
+        <v>10</v>
+      </c>
+      <c r="C718">
+        <v>0.254016</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719" t="s">
+        <v>10</v>
+      </c>
+      <c r="B719" t="s">
+        <v>7</v>
+      </c>
+      <c r="C719">
+        <v>0.2381139999999959</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720" t="s">
+        <v>7</v>
+      </c>
+      <c r="B720" t="s">
+        <v>8</v>
+      </c>
+      <c r="C720">
+        <v>1.579759899999999</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721" t="s">
+        <v>8</v>
+      </c>
+      <c r="B721" t="s">
+        <v>11</v>
+      </c>
+      <c r="C721">
+        <v>0.243730400000004</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722" t="s">
+        <v>11</v>
+      </c>
+      <c r="B722" t="s">
+        <v>12</v>
+      </c>
+      <c r="C722">
+        <v>0.2282219000000012</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" t="s">
+        <v>12</v>
+      </c>
+      <c r="B723" t="s">
+        <v>10</v>
+      </c>
+      <c r="C723">
+        <v>0.2323001999999974</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" t="s">
+        <v>10</v>
+      </c>
+      <c r="B724" t="s">
+        <v>7</v>
+      </c>
+      <c r="C724">
+        <v>0.2158634999999975</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725" t="s">
+        <v>7</v>
+      </c>
+      <c r="B725" t="s">
+        <v>8</v>
+      </c>
+      <c r="C725">
+        <v>1.204162100000005</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" t="s">
+        <v>8</v>
+      </c>
+      <c r="B726" t="s">
+        <v>11</v>
+      </c>
+      <c r="C726">
+        <v>0.2315304999999981</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" t="s">
+        <v>11</v>
+      </c>
+      <c r="B727" t="s">
+        <v>6</v>
+      </c>
+      <c r="C727">
+        <v>0.2122527000000005</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728" t="s">
+        <v>6</v>
+      </c>
+      <c r="B728" t="s">
+        <v>10</v>
+      </c>
+      <c r="C728">
+        <v>0.2121830999999972</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" t="s">
+        <v>10</v>
+      </c>
+      <c r="B729" t="s">
+        <v>7</v>
+      </c>
+      <c r="C729">
+        <v>0.243678899999999</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730" t="s">
+        <v>7</v>
+      </c>
+      <c r="B730" t="s">
+        <v>13</v>
+      </c>
+      <c r="C730">
+        <v>1.5682227</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731" t="s">
+        <v>13</v>
+      </c>
+      <c r="B731" t="s">
+        <v>11</v>
+      </c>
+      <c r="C731">
+        <v>0.2358590000000049</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" t="s">
+        <v>11</v>
+      </c>
+      <c r="B732" t="s">
+        <v>14</v>
+      </c>
+      <c r="C732">
+        <v>0.2039783999999969</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733" t="s">
+        <v>14</v>
+      </c>
+      <c r="B733" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733">
+        <v>0.2238210000000009</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="A734" t="s">
+        <v>15</v>
+      </c>
+      <c r="B734" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734">
+        <v>0.2244754000000029</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735" t="s">
+        <v>16</v>
+      </c>
+      <c r="B735" t="s">
+        <v>7</v>
+      </c>
+      <c r="C735">
+        <v>0.2077381000000003</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736" t="s">
+        <v>7</v>
+      </c>
+      <c r="B736" t="s">
+        <v>3</v>
+      </c>
+      <c r="C736">
+        <v>1.183796299999997</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" t="s">
+        <v>3</v>
+      </c>
+      <c r="B737" t="s">
+        <v>4</v>
+      </c>
+      <c r="C737">
+        <v>0.2280799999999985</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738" t="s">
+        <v>4</v>
+      </c>
+      <c r="B738" t="s">
+        <v>5</v>
+      </c>
+      <c r="C738">
+        <v>0.231887399999998</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="A739" t="s">
+        <v>5</v>
+      </c>
+      <c r="B739" t="s">
+        <v>8</v>
+      </c>
+      <c r="C739">
+        <v>0.204100700000005</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740" t="s">
+        <v>8</v>
+      </c>
+      <c r="B740" t="s">
+        <v>19</v>
+      </c>
+      <c r="C740">
+        <v>0.2407297999999969</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741" t="s">
+        <v>19</v>
+      </c>
+      <c r="B741" t="s">
+        <v>7</v>
+      </c>
+      <c r="C741">
+        <v>0.2833600000000018</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742" t="s">
+        <v>7</v>
+      </c>
+      <c r="B742" t="s">
+        <v>16</v>
+      </c>
+      <c r="C742">
+        <v>1.071789299999999</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743" t="s">
+        <v>16</v>
+      </c>
+      <c r="B743" t="s">
+        <v>17</v>
+      </c>
+      <c r="C743">
+        <v>0.2962220000000002</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744" t="s">
+        <v>17</v>
+      </c>
+      <c r="B744" t="s">
+        <v>18</v>
+      </c>
+      <c r="C744">
+        <v>0.427829899999999</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="A745" t="s">
+        <v>18</v>
+      </c>
+      <c r="B745" t="s">
+        <v>8</v>
+      </c>
+      <c r="C745">
+        <v>0.1681335000000033</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746" t="s">
+        <v>8</v>
+      </c>
+      <c r="B746" t="s">
+        <v>10</v>
+      </c>
+      <c r="C746">
+        <v>0.1876369000000011</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747" t="s">
+        <v>10</v>
+      </c>
+      <c r="B747" t="s">
+        <v>7</v>
+      </c>
+      <c r="C747">
+        <v>0.2521606999999975</v>
       </c>
     </row>
   </sheetData>
@@ -7454,10 +8697,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.2406332749999979</v>
+        <v>0.2352955636363619</v>
       </c>
       <c r="D2">
-        <v>0.0508405664051909</v>
+        <v>0.04434633782743538</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7468,10 +8711,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0.3536226904761916</v>
+        <v>0.3345197370370377</v>
       </c>
       <c r="D3">
-        <v>0.297109183247507</v>
+        <v>0.2666928841112217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7482,10 +8725,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.2398446599999973</v>
+        <v>0.2346596999999983</v>
       </c>
       <c r="D4">
-        <v>0.05471247585259253</v>
+        <v>0.04941566754607984</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -7496,10 +8739,10 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.2798238818181851</v>
+        <v>0.3040738857142881</v>
       </c>
       <c r="D5">
-        <v>0.09296430899327586</v>
+        <v>0.09804694863723937</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7510,10 +8753,10 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1.30308207142857</v>
+        <v>1.247183386956521</v>
       </c>
       <c r="D6">
-        <v>0.918516177220307</v>
+        <v>0.7278441349826245</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7524,10 +8767,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>0.2753744857142851</v>
+        <v>0.25502185</v>
       </c>
       <c r="D7">
-        <v>0.1708046016701317</v>
+        <v>0.1463697529463593</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7538,10 +8781,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.2801943666666669</v>
+        <v>0.263206566666667</v>
       </c>
       <c r="D8">
-        <v>0.1044297650026996</v>
+        <v>0.091202820649133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7552,10 +8795,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.2251697428571394</v>
+        <v>0.2313826699999977</v>
       </c>
       <c r="D9">
-        <v>0.04256191893562326</v>
+        <v>0.03724779946493776</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7566,10 +8809,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.264539438235293</v>
+        <v>0.2624564847826077</v>
       </c>
       <c r="D10">
-        <v>0.236914776496104</v>
+        <v>0.2066483773157618</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7580,10 +8823,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.2429105374999978</v>
+        <v>0.2382383928571418</v>
       </c>
       <c r="D11">
-        <v>0.02370448474186485</v>
+        <v>0.02004899643043955</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7594,10 +8837,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.2697430400000005</v>
+        <v>0.2786087000000004</v>
       </c>
       <c r="D12">
-        <v>0.05348539679742759</v>
+        <v>0.07302111260443724</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7608,10 +8851,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.2193588750000042</v>
+        <v>0.2190231571428594</v>
       </c>
       <c r="D13">
-        <v>0.009475643167446564</v>
+        <v>0.01434363456249387</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7622,10 +8865,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>0.2169578000000021</v>
+        <v>0.2113867000000013</v>
       </c>
       <c r="D14">
-        <v>0.02398601898075172</v>
+        <v>0.01973654665690029</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7636,10 +8879,10 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.2263077428571419</v>
+        <v>0.2213176099999991</v>
       </c>
       <c r="D15">
-        <v>0.04626264574374778</v>
+        <v>0.03962875471279957</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7650,10 +8893,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>1.095228266666662</v>
+        <v>1.259661199999997</v>
       </c>
       <c r="D16">
-        <v>0.9577410995340052</v>
+        <v>0.7014684078528571</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7664,10 +8907,10 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>0.2235071333333328</v>
+        <v>0.2219212500000006</v>
       </c>
       <c r="D17">
-        <v>0.02282889165310039</v>
+        <v>0.01948175090272697</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7678,10 +8921,10 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>0.3239923750000049</v>
+        <v>0.2809447142857167</v>
       </c>
       <c r="D18">
-        <v>0.07865451981925005</v>
+        <v>0.08108231625977429</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7692,10 +8935,10 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>0.1943717250000008</v>
+        <v>0.2007011000000006</v>
       </c>
       <c r="D19">
-        <v>0.01355886745074491</v>
+        <v>0.01523999469891142</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7706,10 +8949,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>0.3127112499999933</v>
+        <v>0.2753362142857113</v>
       </c>
       <c r="D20">
-        <v>0.1275263738544032</v>
+        <v>0.1056264343205729</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7720,10 +8963,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>0.289823263157894</v>
+        <v>0.2841223590909084</v>
       </c>
       <c r="D21">
-        <v>0.2703402321419158</v>
+        <v>0.2520038339988179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7734,10 +8977,10 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>1.148923695652175</v>
+        <v>1.142181200000001</v>
       </c>
       <c r="D22">
-        <v>0.6216551640043763</v>
+        <v>0.5850231252865635</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7748,10 +8991,10 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>0.3288849749999949</v>
+        <v>0.3148729428571393</v>
       </c>
       <c r="D23">
-        <v>0.02385614796654291</v>
+        <v>0.03091536901439922</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7762,10 +9005,10 @@
         <v>18</v>
       </c>
       <c r="C24">
-        <v>0.4780297249999954</v>
+        <v>0.4668026142857121</v>
       </c>
       <c r="D24">
-        <v>0.1537383577674457</v>
+        <v>0.1193658268594764</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7776,10 +9019,10 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>0.1932344000000059</v>
+        <v>0.1871069285714318</v>
       </c>
       <c r="D25">
-        <v>0.03688880721268569</v>
+        <v>0.03112531456950183</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7790,10 +9033,10 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>0.1758308749999955</v>
+        <v>0.1792085285714258</v>
       </c>
       <c r="D26">
-        <v>0.01128612134999855</v>
+        <v>0.0135190364170278</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7832,10 +9075,10 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>1.284391788235296</v>
+        <v>1.259671013636365</v>
       </c>
       <c r="D29">
-        <v>0.8652732669887464</v>
+        <v>0.7624057825252871</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7846,10 +9089,10 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>0.3805592000000004</v>
+        <v>0.3191490444444456</v>
       </c>
       <c r="D30">
-        <v>0.470462630538654</v>
+        <v>0.3938803780172269</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7860,10 +9103,10 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>0.2639495999999966</v>
+        <v>0.2619177444444413</v>
       </c>
       <c r="D31">
-        <v>0.05798224763733197</v>
+        <v>0.04834723159897415</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7874,10 +9117,10 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>0.2888054600000006</v>
+        <v>0.2921569000000007</v>
       </c>
       <c r="D32">
-        <v>0.1275423813421137</v>
+        <v>0.1134840695637692</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -7891,7 +9134,7 @@
         <v>0.1763525555555528</v>
       </c>
       <c r="D33">
-        <v>0.02573908104256941</v>
+        <v>0.02573908104256939</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -7919,7 +9162,7 @@
         <v>0.2717421999999994</v>
       </c>
       <c r="D35">
-        <v>0.01559399999999922</v>
+        <v>0.01559399999999919</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -7933,7 +9176,7 @@
         <v>0.1880398000000003</v>
       </c>
       <c r="D36">
-        <v>0.01182529999999993</v>
+        <v>0.0118252999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -7947,7 +9190,7 @@
         <v>0.2521164249999996</v>
       </c>
       <c r="D37">
-        <v>0.03512705830498557</v>
+        <v>0.03512705830498556</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -7958,7 +9201,7 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>0.3220478999999967</v>
+        <v>0.3220478999999968</v>
       </c>
       <c r="D38">
         <v>0.1419366000000037</v>
@@ -7975,7 +9218,7 @@
         <v>0.913431884615384</v>
       </c>
       <c r="D39">
-        <v>0.7568155746492438</v>
+        <v>0.7568155746492436</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -8017,7 +9260,7 @@
         <v>1.6069787</v>
       </c>
       <c r="D42">
-        <v>0.9860757534583607</v>
+        <v>0.9860757534583608</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -8031,7 +9274,7 @@
         <v>0.2415532000000002</v>
       </c>
       <c r="D43">
-        <v>0.02954268051289009</v>
+        <v>0.02954268051289008</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -8045,7 +9288,7 @@
         <v>0.1680001249999998</v>
       </c>
       <c r="D44">
-        <v>0.02420252485397262</v>
+        <v>0.02420252485397261</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -8059,7 +9302,7 @@
         <v>0.2198020250000032</v>
       </c>
       <c r="D45">
-        <v>0.05541861428285338</v>
+        <v>0.0554186142828534</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -8073,7 +9316,7 @@
         <v>0.245932460000002</v>
       </c>
       <c r="D46">
-        <v>0.02049260798498419</v>
+        <v>0.02049260798498418</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -8087,7 +9330,7 @@
         <v>0.3481821285714276</v>
       </c>
       <c r="D47">
-        <v>0.3799857723753743</v>
+        <v>0.3799857723753742</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -8101,7 +9344,7 @@
         <v>0.2802841857142863</v>
       </c>
       <c r="D48">
-        <v>0.02893833165486315</v>
+        <v>0.02893833165486314</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -8129,7 +9372,7 @@
         <v>0.2778319500000084</v>
       </c>
       <c r="D50">
-        <v>0.05385154999999209</v>
+        <v>0.05385154999999212</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -8199,7 +9442,7 @@
         <v>0.1819630500000002</v>
       </c>
       <c r="D55">
-        <v>0.01782084999999967</v>
+        <v>0.01782084999999965</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -8283,7 +9526,7 @@
         <v>0.1920724999999956</v>
       </c>
       <c r="D61">
-        <v>0.04530250657088481</v>
+        <v>0.0453025065708848</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -8311,7 +9554,7 @@
         <v>0.9201650799999982</v>
       </c>
       <c r="D63">
-        <v>0.3246040164906044</v>
+        <v>0.3246040164906046</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -8395,7 +9638,7 @@
         <v>0.2420775499999976</v>
       </c>
       <c r="D69">
-        <v>0.009829149999994513</v>
+        <v>0.009829149999994555</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -8437,7 +9680,7 @@
         <v>0.2175837666666567</v>
       </c>
       <c r="D72">
-        <v>0.01661714775171465</v>
+        <v>0.01661714775171464</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -8493,7 +9736,7 @@
         <v>0.2146063333333288</v>
       </c>
       <c r="D76">
-        <v>0.006733979519483262</v>
+        <v>0.006733979519483246</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -8507,7 +9750,7 @@
         <v>0.6245376000000065</v>
       </c>
       <c r="D77">
-        <v>0.707772345232257</v>
+        <v>0.7077723452322571</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -8535,7 +9778,7 @@
         <v>0.3139031000000099</v>
       </c>
       <c r="D79">
-        <v>0.2043649105903665</v>
+        <v>0.2043649105903666</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -8563,7 +9806,7 @@
         <v>0.3146877666666559</v>
       </c>
       <c r="D81">
-        <v>0.09264460597704001</v>
+        <v>0.09264460597704005</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -8619,7 +9862,7 @@
         <v>0.2460547000000091</v>
       </c>
       <c r="D85">
-        <v>0.002267999999993719</v>
+        <v>0.002267999999993761</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -8633,7 +9876,7 @@
         <v>0.1988500363636344</v>
       </c>
       <c r="D86">
-        <v>0.008702334461953445</v>
+        <v>0.008702334461953447</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -8647,7 +9890,7 @@
         <v>0.2371462285714259</v>
       </c>
       <c r="D87">
-        <v>0.008076062190509829</v>
+        <v>0.00807606219050982</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -8661,7 +9904,7 @@
         <v>0.4239645599999974</v>
       </c>
       <c r="D88">
-        <v>0.3319619913699741</v>
+        <v>0.3319619913699739</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -8672,10 +9915,10 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <v>0.9216463333333399</v>
+        <v>0.9216463333333397</v>
       </c>
       <c r="D89">
-        <v>0.5012065600367234</v>
+        <v>0.5012065600367231</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -8773,7 +10016,7 @@
         <v>0.2078971500000044</v>
       </c>
       <c r="D96">
-        <v>0.01181285000000187</v>
+        <v>0.0118128500000019</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -8857,7 +10100,7 @@
         <v>0.2099820999999977</v>
       </c>
       <c r="D102">
-        <v>0.01381560000000803</v>
+        <v>0.01381560000000805</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -8885,7 +10128,7 @@
         <v>0.1606475999999996</v>
       </c>
       <c r="D104">
-        <v>0.01540569800626646</v>
+        <v>0.01540569800626648</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -9179,7 +10422,7 @@
         <v>0.1947647499999974</v>
       </c>
       <c r="D125">
-        <v>0.03030575000000368</v>
+        <v>0.0303057500000037</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9193,7 +10436,7 @@
         <v>0.5669556500000041</v>
       </c>
       <c r="D126">
-        <v>0.1352223499999852</v>
+        <v>0.1352223499999851</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9249,7 +10492,7 @@
         <v>0.178117333333328</v>
       </c>
       <c r="D130">
-        <v>0.01370676995389203</v>
+        <v>0.013706769953892</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -9263,7 +10506,7 @@
         <v>0.1981394499999993</v>
       </c>
       <c r="D131">
-        <v>0.0699471500000044</v>
+        <v>0.06994715000000441</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -9305,7 +10548,7 @@
         <v>0.244088050000002</v>
       </c>
       <c r="D134">
-        <v>1.644999998973162E-05</v>
+        <v>1.644999998970387E-05</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -9375,7 +10618,7 @@
         <v>0.1811841499999929</v>
       </c>
       <c r="D139">
-        <v>0.018720249999987</v>
+        <v>0.01872024999998699</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -9431,7 +10674,7 @@
         <v>0.185824850000003</v>
       </c>
       <c r="D143">
-        <v>0.006306850000001418</v>
+        <v>0.00630685000000146</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -9571,7 +10814,7 @@
         <v>0.3459286500000047</v>
       </c>
       <c r="D153">
-        <v>0.1935979500000116</v>
+        <v>0.1935979500000115</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -9585,7 +10828,7 @@
         <v>0.1986326000000057</v>
       </c>
       <c r="D154">
-        <v>0.007085935416012544</v>
+        <v>0.007085935416012546</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -9711,7 +10954,7 @@
         <v>0.2380160499999988</v>
       </c>
       <c r="D163">
-        <v>0.001945949999992536</v>
+        <v>0.001945949999992494</v>
       </c>
     </row>
     <row r="164" spans="1:4">
